--- a/artfynd/A 35250-2019.xlsx
+++ b/artfynd/A 35250-2019.xlsx
@@ -1260,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100083278</v>
+        <v>100083280</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>567297.3037178527</v>
+        <v>567529.7653300107</v>
       </c>
       <c r="R7" t="n">
-        <v>6862565.833594327</v>
+        <v>6862896.301410968</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100083280</v>
+        <v>100083422</v>
       </c>
       <c r="B8" t="n">
         <v>77506</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>567529.7653300107</v>
+        <v>567381.3444370591</v>
       </c>
       <c r="R8" t="n">
-        <v>6862896.301410968</v>
+        <v>6862854.698618613</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100083422</v>
+        <v>100101572</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,21 +1510,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>567381.3444370591</v>
+        <v>567413.2149353898</v>
       </c>
       <c r="R9" t="n">
-        <v>6862854.698618613</v>
+        <v>6862867.117486122</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,6 +1588,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1611,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100083276</v>
+        <v>100083998</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>93868</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1623,25 +1624,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1651,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>567319.5557142185</v>
+        <v>567414.4012004826</v>
       </c>
       <c r="R10" t="n">
-        <v>6862611.07633436</v>
+        <v>6862854.879720722</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1728,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100101572</v>
+        <v>100101614</v>
       </c>
       <c r="B11" t="n">
-        <v>81236</v>
+        <v>89832</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,25 +1741,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1768,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>567413.2149353898</v>
+        <v>567481.2694024073</v>
       </c>
       <c r="R11" t="n">
-        <v>6862867.117486122</v>
+        <v>6862888.740215117</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1798,7 +1799,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1808,7 +1809,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1822,7 +1823,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100083998</v>
+        <v>100084006</v>
       </c>
       <c r="B12" t="n">
         <v>93868</v>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>567414.4012004826</v>
+        <v>567470.9949728204</v>
       </c>
       <c r="R12" t="n">
-        <v>6862854.879720722</v>
+        <v>6862882.878138464</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1963,10 +1963,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100101614</v>
+        <v>100084007</v>
       </c>
       <c r="B13" t="n">
-        <v>89832</v>
+        <v>93868</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1975,25 +1975,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>2869</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567481.2694024073</v>
+        <v>567445.290118621</v>
       </c>
       <c r="R13" t="n">
-        <v>6862888.740215117</v>
+        <v>6862869.165841008</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100084006</v>
+        <v>100083996</v>
       </c>
       <c r="B14" t="n">
         <v>93868</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567470.9949728204</v>
+        <v>567523.2305168294</v>
       </c>
       <c r="R14" t="n">
-        <v>6862882.878138464</v>
+        <v>6862892.399492897</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2197,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100084007</v>
+        <v>100101615</v>
       </c>
       <c r="B15" t="n">
-        <v>93868</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2209,25 +2209,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2869</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567445.290118621</v>
+        <v>567390.6748882715</v>
       </c>
       <c r="R15" t="n">
-        <v>6862869.165841008</v>
+        <v>6862860.541826616</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100083996</v>
+        <v>100101573</v>
       </c>
       <c r="B16" t="n">
-        <v>93868</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,25 +2326,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2869</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567523.2305168294</v>
+        <v>567393.5075225218</v>
       </c>
       <c r="R16" t="n">
-        <v>6862892.399492897</v>
+        <v>6862860.597750712</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2408,6 +2408,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2431,7 +2432,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100101615</v>
+        <v>100101571</v>
       </c>
       <c r="B17" t="n">
         <v>89392</v>
@@ -2471,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567390.6748882715</v>
+        <v>567527.8302988139</v>
       </c>
       <c r="R17" t="n">
-        <v>6862860.541826616</v>
+        <v>6862898.621030287</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2501,7 +2502,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2511,7 +2512,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2548,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100101573</v>
+        <v>100083278</v>
       </c>
       <c r="B18" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,21 +2565,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567393.5075225218</v>
+        <v>567297.3037178527</v>
       </c>
       <c r="R18" t="n">
-        <v>6862860.597750712</v>
+        <v>6862565.833594327</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2642,7 +2643,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100101571</v>
+        <v>100083276</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2682,21 +2682,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567527.8302988139</v>
+        <v>567319.5557142185</v>
       </c>
       <c r="R19" t="n">
-        <v>6862898.621030287</v>
+        <v>6862611.07633436</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>

--- a/artfynd/A 35250-2019.xlsx
+++ b/artfynd/A 35250-2019.xlsx
@@ -1260,7 +1260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100083280</v>
+        <v>100083278</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>567529.7653300107</v>
+        <v>567297.3037178527</v>
       </c>
       <c r="R7" t="n">
-        <v>6862896.301410968</v>
+        <v>6862565.833594327</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100083422</v>
+        <v>100083280</v>
       </c>
       <c r="B8" t="n">
         <v>77506</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>567381.3444370591</v>
+        <v>567529.7653300107</v>
       </c>
       <c r="R8" t="n">
-        <v>6862854.698618613</v>
+        <v>6862896.301410968</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100101572</v>
+        <v>100083422</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,21 +1510,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>567413.2149353898</v>
+        <v>567381.3444370591</v>
       </c>
       <c r="R9" t="n">
-        <v>6862867.117486122</v>
+        <v>6862854.698618613</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1588,7 +1588,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1612,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100083998</v>
+        <v>100083276</v>
       </c>
       <c r="B10" t="n">
-        <v>93868</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1623,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1651,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>567414.4012004826</v>
+        <v>567319.5557142185</v>
       </c>
       <c r="R10" t="n">
-        <v>6862854.879720722</v>
+        <v>6862611.07633436</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1729,10 +1728,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100101614</v>
+        <v>100101572</v>
       </c>
       <c r="B11" t="n">
-        <v>89832</v>
+        <v>81236</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1741,25 +1740,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>567481.2694024073</v>
+        <v>567413.2149353898</v>
       </c>
       <c r="R11" t="n">
-        <v>6862888.740215117</v>
+        <v>6862867.117486122</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1799,7 +1798,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1809,7 +1808,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1823,6 +1822,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100084006</v>
+        <v>100083998</v>
       </c>
       <c r="B12" t="n">
         <v>93868</v>
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>567470.9949728204</v>
+        <v>567414.4012004826</v>
       </c>
       <c r="R12" t="n">
-        <v>6862882.878138464</v>
+        <v>6862854.879720722</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1963,10 +1963,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100084007</v>
+        <v>100101614</v>
       </c>
       <c r="B13" t="n">
-        <v>93868</v>
+        <v>89832</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1975,25 +1975,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2869</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567445.290118621</v>
+        <v>567481.2694024073</v>
       </c>
       <c r="R13" t="n">
-        <v>6862869.165841008</v>
+        <v>6862888.740215117</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100083996</v>
+        <v>100084006</v>
       </c>
       <c r="B14" t="n">
         <v>93868</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567523.2305168294</v>
+        <v>567470.9949728204</v>
       </c>
       <c r="R14" t="n">
-        <v>6862892.399492897</v>
+        <v>6862882.878138464</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2197,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100101615</v>
+        <v>100084007</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>93868</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2209,25 +2209,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>2869</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567390.6748882715</v>
+        <v>567445.290118621</v>
       </c>
       <c r="R15" t="n">
-        <v>6862860.541826616</v>
+        <v>6862869.165841008</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100101573</v>
+        <v>100083996</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>93868</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,25 +2326,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>2869</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567393.5075225218</v>
+        <v>567523.2305168294</v>
       </c>
       <c r="R16" t="n">
-        <v>6862860.597750712</v>
+        <v>6862892.399492897</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2408,7 +2408,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2432,7 +2431,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100101571</v>
+        <v>100101615</v>
       </c>
       <c r="B17" t="n">
         <v>89392</v>
@@ -2472,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567527.8302988139</v>
+        <v>567390.6748882715</v>
       </c>
       <c r="R17" t="n">
-        <v>6862898.621030287</v>
+        <v>6862860.541826616</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2502,7 +2501,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2512,7 +2511,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2549,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100083278</v>
+        <v>100101573</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2589,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567297.3037178527</v>
+        <v>567393.5075225218</v>
       </c>
       <c r="R18" t="n">
-        <v>6862565.833594327</v>
+        <v>6862860.597750712</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2643,6 +2642,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2666,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100083276</v>
+        <v>100101571</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2682,21 +2682,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567319.5557142185</v>
+        <v>567527.8302988139</v>
       </c>
       <c r="R19" t="n">
-        <v>6862611.07633436</v>
+        <v>6862898.621030287</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
